--- a/form.excel/So1CuaDemo.xlsx
+++ b/form.excel/So1CuaDemo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="37">
   <si>
     <t xml:space="preserve">Mã số chứng từ </t>
   </si>
@@ -103,6 +103,33 @@
   </si>
   <si>
     <t>quoc123</t>
+  </si>
+  <si>
+    <t>ưe</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>qưeqwe</t>
+  </si>
+  <si>
+    <t>ưeqqưe</t>
+  </si>
+  <si>
+    <t>áda123</t>
+  </si>
+  <si>
+    <t>qưe</t>
+  </si>
+  <si>
+    <t>qyiuc1</t>
+  </si>
+  <si>
+    <t>qưee</t>
+  </si>
+  <si>
+    <t>wr</t>
   </si>
 </sst>
 </file>
@@ -589,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
@@ -734,6 +761,126 @@
         <v>1234.0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1234.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="n">
+        <v>124.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12450.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12450.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12450.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12390.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>

--- a/form.excel/So1CuaDemo.xlsx
+++ b/form.excel/So1CuaDemo.xlsx
@@ -13,13 +13,13 @@
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t xml:space="preserve">Mã số chứng từ </t>
   </si>
@@ -78,58 +78,19 @@
     <t/>
   </si>
   <si>
-    <t>quoc982</t>
-  </si>
-  <si>
-    <t>asda</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>quoc1</t>
-  </si>
-  <si>
-    <t>ádasd</t>
-  </si>
-  <si>
-    <t>ádads</t>
-  </si>
-  <si>
-    <t>quoc12</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>quoc123</t>
-  </si>
-  <si>
-    <t>ưe</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>qưeqwe</t>
-  </si>
-  <si>
-    <t>ưeqqưe</t>
-  </si>
-  <si>
-    <t>áda123</t>
-  </si>
-  <si>
-    <t>qưe</t>
-  </si>
-  <si>
-    <t>qyiuc1</t>
-  </si>
-  <si>
-    <t>qưee</t>
-  </si>
-  <si>
-    <t>wr</t>
+    <t>quoqwe1</t>
+  </si>
+  <si>
+    <t>qweqwe</t>
+  </si>
+  <si>
+    <t>ererer</t>
+  </si>
+  <si>
+    <t>errr</t>
+  </si>
+  <si>
+    <t>eererer</t>
   </si>
 </sst>
 </file>
@@ -270,7 +231,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" cacheId="5" createdVersion="3" dataCaption="Values" indent="0" itemPrintTitles="1" minRefreshableVersion="3" multipleFieldFilters="0" name="PivotTable1" outline="1" outlineData="1" showCalcMbrs="0" updatedVersion="3" useAutoFormatting="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" cacheId="0" createdVersion="3" dataCaption="Values" indent="0" itemPrintTitles="1" minRefreshableVersion="3" multipleFieldFilters="0" name="PivotTable1" outline="1" outlineData="1" showCalcMbrs="0" updatedVersion="3" useAutoFormatting="1">
   <location firstDataCol="2" firstDataRow="2" firstHeaderRow="1" ref="A1:D4"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" defaultSubtotal="0" outline="0" showAll="0">
@@ -616,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A2" sqref="A2:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -692,194 +653,94 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>12450.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="n">
-        <v>124556.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="n">
-        <v>12450.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1234.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1234.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="n">
-        <v>124.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="n">
-        <v>12450.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="n">
-        <v>12450.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="n">
-        <v>12450.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="n">
-        <v>12390.0</v>
-      </c>
+        <v>1234000.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/form.excel/So1CuaDemo.xlsx
+++ b/form.excel/So1CuaDemo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="39">
   <si>
     <t xml:space="preserve">Mã số chứng từ </t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>wr</t>
+  </si>
+  <si>
+    <t>quoc1234</t>
+  </si>
+  <si>
+    <t>qư</t>
   </si>
 </sst>
 </file>
@@ -616,7 +622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
@@ -881,6 +887,26 @@
         <v>12390.0</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="n">
+        <v>123450.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
